--- a/ARCHIVE/deployment/Omaha_Cal_Info_GS03FLMB_00003.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_GS03FLMB_00003.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarzio\Desktop\cal sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarzio/Documents/repo/lgarzio/ooi-integration-fork/asset-management/ARCHIVE/deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9696"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,9 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -419,12 +422,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -974,7 +978,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1117,6 +1121,9 @@
     </xf>
     <xf numFmtId="166" fontId="15" fillId="7" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="236">
@@ -1433,9 +1440,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1468,9 +1475,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1676,30 +1683,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="8.83203125" style="31"/>
     <col min="2" max="2" width="22.33203125" style="31" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="32" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="31" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="31" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="31" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="31"/>
+    <col min="11" max="11" width="11.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="31" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="31" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="31" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="21" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="21" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>67</v>
       </c>
@@ -1737,7 +1744,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -1750,12 +1757,22 @@
       <c r="D2" s="22">
         <v>3</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="E2" s="23">
+        <v>42707</v>
+      </c>
+      <c r="F2" s="24">
+        <v>0.79722222222222217</v>
+      </c>
       <c r="G2" s="23"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="H2" s="49">
+        <v>-54.080306666666665</v>
+      </c>
+      <c r="I2" s="49">
+        <v>-88.931771666666663</v>
+      </c>
+      <c r="J2" s="22">
+        <v>4928</v>
+      </c>
       <c r="K2" s="14" t="s">
         <v>95</v>
       </c>
@@ -1763,20 +1780,15 @@
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E3" s="28"/>
       <c r="F3" s="29"/>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="1:14" s="30" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1784,25 +1796,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L378"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="N377" sqref="N377"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="14.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1831,7 +1843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1859,9 +1871,11 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -1890,7 +1904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>51</v>
       </c>
@@ -1916,7 +1930,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -1942,7 +1956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1968,7 +1982,7 @@
         <v>9.2399999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>51</v>
       </c>
@@ -1994,7 +2008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
@@ -2023,7 +2037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>51</v>
       </c>
@@ -2052,7 +2066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
@@ -2081,7 +2095,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -2110,7 +2124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2119,7 +2133,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -2147,9 +2161,11 @@
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="46"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>52</v>
       </c>
@@ -2175,7 +2191,7 @@
         <v>2284.1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>52</v>
       </c>
@@ -2201,7 +2217,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>52</v>
       </c>
@@ -2227,7 +2243,7 @@
         <v>38676.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
@@ -2253,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>52</v>
       </c>
@@ -2279,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>52</v>
       </c>
@@ -2308,7 +2324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2318,7 +2334,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -2344,9 +2360,11 @@
       <c r="I21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="46"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J21" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -2373,7 +2391,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>53</v>
       </c>
@@ -2399,7 +2417,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2409,7 +2427,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
@@ -2435,9 +2453,11 @@
       <c r="I25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="46"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J25" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>54</v>
       </c>
@@ -2461,7 +2481,7 @@
       </c>
       <c r="H26" s="47"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>54</v>
       </c>
@@ -2485,7 +2505,7 @@
       </c>
       <c r="H27" s="47"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>54</v>
       </c>
@@ -2509,7 +2529,7 @@
       </c>
       <c r="H28" s="47"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
@@ -2531,12 +2551,14 @@
       <c r="G29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="10">
+        <v>4928000</v>
+      </c>
       <c r="I29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
@@ -2565,7 +2587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>54</v>
       </c>
@@ -2594,7 +2616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>54</v>
       </c>
@@ -2623,7 +2645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>54</v>
       </c>
@@ -2652,7 +2674,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -2662,7 +2684,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
@@ -2690,11 +2712,13 @@
       <c r="I35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="44"/>
+      <c r="J35" s="2">
+        <v>30</v>
+      </c>
       <c r="K35" s="9"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>55</v>
       </c>
@@ -2722,7 +2746,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="37"/>
     </row>
-    <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>55</v>
       </c>
@@ -2750,7 +2774,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="37"/>
     </row>
-    <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>55</v>
       </c>
@@ -2780,7 +2804,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="10"/>
     </row>
-    <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>55</v>
       </c>
@@ -2809,7 +2833,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>55</v>
       </c>
@@ -2838,7 +2862,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>55</v>
       </c>
@@ -2867,7 +2891,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>55</v>
       </c>
@@ -2896,7 +2920,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="10"/>
     </row>
-    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>55</v>
       </c>
@@ -2925,7 +2949,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>55</v>
       </c>
@@ -2954,7 +2978,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="10"/>
     </row>
-    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>55</v>
       </c>
@@ -2983,7 +3007,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>55</v>
       </c>
@@ -3012,7 +3036,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>55</v>
       </c>
@@ -3041,7 +3065,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>55</v>
       </c>
@@ -3070,7 +3094,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>55</v>
       </c>
@@ -3099,7 +3123,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>55</v>
       </c>
@@ -3128,7 +3152,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>55</v>
       </c>
@@ -3157,7 +3181,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>55</v>
       </c>
@@ -3186,7 +3210,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>55</v>
       </c>
@@ -3215,7 +3239,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>55</v>
       </c>
@@ -3244,7 +3268,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>55</v>
       </c>
@@ -3273,7 +3297,7 @@
       <c r="K55" s="9"/>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>55</v>
       </c>
@@ -3302,7 +3326,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -3331,7 +3355,7 @@
       <c r="K57" s="9"/>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>55</v>
       </c>
@@ -3360,7 +3384,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>55</v>
       </c>
@@ -3389,7 +3413,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>55</v>
       </c>
@@ -3418,7 +3442,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>55</v>
       </c>
@@ -3447,7 +3471,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62"/>
       <c r="C62" s="4"/>
@@ -3457,7 +3481,7 @@
       <c r="K62" s="9"/>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>56</v>
       </c>
@@ -3485,11 +3509,13 @@
       <c r="I63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="44"/>
+      <c r="J63" s="2">
+        <v>40</v>
+      </c>
       <c r="K63" s="9"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>56</v>
       </c>
@@ -3517,7 +3543,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="37"/>
     </row>
-    <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>56</v>
       </c>
@@ -3545,7 +3571,7 @@
       <c r="K65" s="9"/>
       <c r="L65" s="37"/>
     </row>
-    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
         <v>56</v>
       </c>
@@ -3575,7 +3601,7 @@
       <c r="K66" s="9"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>56</v>
       </c>
@@ -3604,7 +3630,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>56</v>
       </c>
@@ -3633,7 +3659,7 @@
       <c r="K68" s="9"/>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>56</v>
       </c>
@@ -3662,7 +3688,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>56</v>
       </c>
@@ -3691,7 +3717,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="10"/>
     </row>
-    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>56</v>
       </c>
@@ -3720,7 +3746,7 @@
       <c r="K71" s="9"/>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>56</v>
       </c>
@@ -3749,7 +3775,7 @@
       <c r="K72" s="9"/>
       <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>56</v>
       </c>
@@ -3778,7 +3804,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="10"/>
     </row>
-    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>56</v>
       </c>
@@ -3807,7 +3833,7 @@
       <c r="K74" s="9"/>
       <c r="L74" s="10"/>
     </row>
-    <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>56</v>
       </c>
@@ -3836,7 +3862,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="10"/>
     </row>
-    <row r="76" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>56</v>
       </c>
@@ -3865,7 +3891,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="10"/>
     </row>
-    <row r="77" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>56</v>
       </c>
@@ -3894,7 +3920,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>56</v>
       </c>
@@ -3923,7 +3949,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>56</v>
       </c>
@@ -3952,7 +3978,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>56</v>
       </c>
@@ -3981,7 +4007,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>56</v>
       </c>
@@ -4010,7 +4036,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>56</v>
       </c>
@@ -4039,7 +4065,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>56</v>
       </c>
@@ -4068,7 +4094,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>56</v>
       </c>
@@ -4097,7 +4123,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>56</v>
       </c>
@@ -4126,7 +4152,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
         <v>56</v>
       </c>
@@ -4155,7 +4181,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>56</v>
       </c>
@@ -4184,7 +4210,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>56</v>
       </c>
@@ -4213,7 +4239,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>56</v>
       </c>
@@ -4242,7 +4268,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90"/>
       <c r="C90" s="4"/>
@@ -4252,7 +4278,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="10"/>
     </row>
-    <row r="91" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>57</v>
       </c>
@@ -4280,11 +4306,13 @@
       <c r="I91" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J91" s="44"/>
+      <c r="J91" s="2">
+        <v>60</v>
+      </c>
       <c r="K91" s="9"/>
       <c r="L91" s="10"/>
     </row>
-    <row r="92" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>57</v>
       </c>
@@ -4312,7 +4340,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="37"/>
     </row>
-    <row r="93" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>57</v>
       </c>
@@ -4340,7 +4368,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="37"/>
     </row>
-    <row r="94" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>57</v>
       </c>
@@ -4370,7 +4398,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10"/>
     </row>
-    <row r="95" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>57</v>
       </c>
@@ -4399,7 +4427,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10"/>
     </row>
-    <row r="96" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>57</v>
       </c>
@@ -4428,7 +4456,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10"/>
     </row>
-    <row r="97" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>57</v>
       </c>
@@ -4457,7 +4485,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10"/>
     </row>
-    <row r="98" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>57</v>
       </c>
@@ -4486,7 +4514,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10"/>
     </row>
-    <row r="99" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>57</v>
       </c>
@@ -4515,7 +4543,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10"/>
     </row>
-    <row r="100" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>57</v>
       </c>
@@ -4544,7 +4572,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10"/>
     </row>
-    <row r="101" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>57</v>
       </c>
@@ -4573,7 +4601,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10"/>
     </row>
-    <row r="102" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>57</v>
       </c>
@@ -4602,7 +4630,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10"/>
     </row>
-    <row r="103" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>57</v>
       </c>
@@ -4631,7 +4659,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10"/>
     </row>
-    <row r="104" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>57</v>
       </c>
@@ -4660,7 +4688,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10"/>
     </row>
-    <row r="105" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>57</v>
       </c>
@@ -4689,7 +4717,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10"/>
     </row>
-    <row r="106" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>57</v>
       </c>
@@ -4718,7 +4746,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>57</v>
       </c>
@@ -4747,7 +4775,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>57</v>
       </c>
@@ -4776,7 +4804,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>57</v>
       </c>
@@ -4805,7 +4833,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10"/>
     </row>
-    <row r="110" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>57</v>
       </c>
@@ -4834,7 +4862,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10"/>
     </row>
-    <row r="111" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>57</v>
       </c>
@@ -4863,7 +4891,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10"/>
     </row>
-    <row r="112" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>57</v>
       </c>
@@ -4892,7 +4920,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10"/>
     </row>
-    <row r="113" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>57</v>
       </c>
@@ -4921,7 +4949,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10"/>
     </row>
-    <row r="114" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>57</v>
       </c>
@@ -4950,7 +4978,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10"/>
     </row>
-    <row r="115" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>57</v>
       </c>
@@ -4979,7 +5007,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10"/>
     </row>
-    <row r="116" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>57</v>
       </c>
@@ -5008,7 +5036,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10"/>
     </row>
-    <row r="117" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>57</v>
       </c>
@@ -5037,7 +5065,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
@@ -5047,7 +5075,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10"/>
     </row>
-    <row r="119" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
@@ -5075,11 +5103,13 @@
       <c r="I119" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J119" s="44"/>
+      <c r="J119" s="2">
+        <v>90</v>
+      </c>
       <c r="K119" s="9"/>
       <c r="L119" s="10"/>
     </row>
-    <row r="120" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>58</v>
       </c>
@@ -5107,7 +5137,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="37"/>
     </row>
-    <row r="121" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>58</v>
       </c>
@@ -5135,7 +5165,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="37"/>
     </row>
-    <row r="122" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>58</v>
       </c>
@@ -5165,7 +5195,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10"/>
     </row>
-    <row r="123" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>58</v>
       </c>
@@ -5194,7 +5224,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10"/>
     </row>
-    <row r="124" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>58</v>
       </c>
@@ -5223,7 +5253,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10"/>
     </row>
-    <row r="125" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>58</v>
       </c>
@@ -5252,7 +5282,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10"/>
     </row>
-    <row r="126" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>58</v>
       </c>
@@ -5281,7 +5311,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10"/>
     </row>
-    <row r="127" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>58</v>
       </c>
@@ -5310,7 +5340,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10"/>
     </row>
-    <row r="128" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>58</v>
       </c>
@@ -5339,7 +5369,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10"/>
     </row>
-    <row r="129" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>58</v>
       </c>
@@ -5368,7 +5398,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10"/>
     </row>
-    <row r="130" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>58</v>
       </c>
@@ -5397,7 +5427,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10"/>
     </row>
-    <row r="131" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>58</v>
       </c>
@@ -5426,7 +5456,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10"/>
     </row>
-    <row r="132" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>58</v>
       </c>
@@ -5455,7 +5485,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10"/>
     </row>
-    <row r="133" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>58</v>
       </c>
@@ -5484,7 +5514,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10"/>
     </row>
-    <row r="134" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>58</v>
       </c>
@@ -5513,7 +5543,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10"/>
     </row>
-    <row r="135" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>58</v>
       </c>
@@ -5542,7 +5572,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10"/>
     </row>
-    <row r="136" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>58</v>
       </c>
@@ -5571,7 +5601,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10"/>
     </row>
-    <row r="137" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>58</v>
       </c>
@@ -5600,7 +5630,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10"/>
     </row>
-    <row r="138" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>58</v>
       </c>
@@ -5629,7 +5659,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10"/>
     </row>
-    <row r="139" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>58</v>
       </c>
@@ -5658,7 +5688,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10"/>
     </row>
-    <row r="140" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>58</v>
       </c>
@@ -5687,7 +5717,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10"/>
     </row>
-    <row r="141" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>58</v>
       </c>
@@ -5716,7 +5746,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10"/>
     </row>
-    <row r="142" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>58</v>
       </c>
@@ -5745,7 +5775,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10"/>
     </row>
-    <row r="143" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>58</v>
       </c>
@@ -5774,7 +5804,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10"/>
     </row>
-    <row r="144" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>58</v>
       </c>
@@ -5803,7 +5833,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10"/>
     </row>
-    <row r="145" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>58</v>
       </c>
@@ -5832,7 +5862,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="4"/>
@@ -5842,7 +5872,7 @@
       <c r="K146" s="9"/>
       <c r="L146" s="10"/>
     </row>
-    <row r="147" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>59</v>
       </c>
@@ -5870,11 +5900,13 @@
       <c r="I147" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J147" s="44"/>
+      <c r="J147" s="2">
+        <v>130</v>
+      </c>
       <c r="K147" s="9"/>
       <c r="L147" s="10"/>
     </row>
-    <row r="148" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>59</v>
       </c>
@@ -5902,7 +5934,7 @@
       <c r="K148" s="9"/>
       <c r="L148" s="37"/>
     </row>
-    <row r="149" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>59</v>
       </c>
@@ -5930,7 +5962,7 @@
       <c r="K149" s="9"/>
       <c r="L149" s="37"/>
     </row>
-    <row r="150" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>59</v>
       </c>
@@ -5960,7 +5992,7 @@
       <c r="K150" s="9"/>
       <c r="L150" s="10"/>
     </row>
-    <row r="151" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>59</v>
       </c>
@@ -5989,7 +6021,7 @@
       <c r="K151" s="9"/>
       <c r="L151" s="10"/>
     </row>
-    <row r="152" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>59</v>
       </c>
@@ -6018,7 +6050,7 @@
       <c r="K152" s="9"/>
       <c r="L152" s="10"/>
     </row>
-    <row r="153" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
         <v>59</v>
       </c>
@@ -6047,7 +6079,7 @@
       <c r="K153" s="9"/>
       <c r="L153" s="10"/>
     </row>
-    <row r="154" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>59</v>
       </c>
@@ -6076,7 +6108,7 @@
       <c r="K154" s="9"/>
       <c r="L154" s="10"/>
     </row>
-    <row r="155" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
         <v>59</v>
       </c>
@@ -6105,7 +6137,7 @@
       <c r="K155" s="9"/>
       <c r="L155" s="10"/>
     </row>
-    <row r="156" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>59</v>
       </c>
@@ -6134,7 +6166,7 @@
       <c r="K156" s="9"/>
       <c r="L156" s="10"/>
     </row>
-    <row r="157" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>59</v>
       </c>
@@ -6163,7 +6195,7 @@
       <c r="K157" s="9"/>
       <c r="L157" s="10"/>
     </row>
-    <row r="158" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>59</v>
       </c>
@@ -6192,7 +6224,7 @@
       <c r="K158" s="9"/>
       <c r="L158" s="10"/>
     </row>
-    <row r="159" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>59</v>
       </c>
@@ -6221,7 +6253,7 @@
       <c r="K159" s="9"/>
       <c r="L159" s="10"/>
     </row>
-    <row r="160" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>59</v>
       </c>
@@ -6250,7 +6282,7 @@
       <c r="K160" s="9"/>
       <c r="L160" s="10"/>
     </row>
-    <row r="161" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
         <v>59</v>
       </c>
@@ -6279,7 +6311,7 @@
       <c r="K161" s="9"/>
       <c r="L161" s="10"/>
     </row>
-    <row r="162" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>59</v>
       </c>
@@ -6308,7 +6340,7 @@
       <c r="K162" s="9"/>
       <c r="L162" s="10"/>
     </row>
-    <row r="163" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
         <v>59</v>
       </c>
@@ -6337,7 +6369,7 @@
       <c r="K163" s="9"/>
       <c r="L163" s="10"/>
     </row>
-    <row r="164" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>59</v>
       </c>
@@ -6366,7 +6398,7 @@
       <c r="K164" s="9"/>
       <c r="L164" s="10"/>
     </row>
-    <row r="165" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
         <v>59</v>
       </c>
@@ -6395,7 +6427,7 @@
       <c r="K165" s="9"/>
       <c r="L165" s="10"/>
     </row>
-    <row r="166" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>59</v>
       </c>
@@ -6424,7 +6456,7 @@
       <c r="K166" s="9"/>
       <c r="L166" s="10"/>
     </row>
-    <row r="167" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
         <v>59</v>
       </c>
@@ -6453,7 +6485,7 @@
       <c r="K167" s="9"/>
       <c r="L167" s="10"/>
     </row>
-    <row r="168" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>59</v>
       </c>
@@ -6482,7 +6514,7 @@
       <c r="K168" s="9"/>
       <c r="L168" s="10"/>
     </row>
-    <row r="169" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
         <v>59</v>
       </c>
@@ -6511,7 +6543,7 @@
       <c r="K169" s="9"/>
       <c r="L169" s="10"/>
     </row>
-    <row r="170" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>59</v>
       </c>
@@ -6540,7 +6572,7 @@
       <c r="K170" s="9"/>
       <c r="L170" s="10"/>
     </row>
-    <row r="171" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
         <v>59</v>
       </c>
@@ -6569,7 +6601,7 @@
       <c r="K171" s="9"/>
       <c r="L171" s="10"/>
     </row>
-    <row r="172" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>59</v>
       </c>
@@ -6598,7 +6630,7 @@
       <c r="K172" s="9"/>
       <c r="L172" s="10"/>
     </row>
-    <row r="173" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
         <v>59</v>
       </c>
@@ -6627,7 +6659,7 @@
       <c r="K173" s="9"/>
       <c r="L173" s="10"/>
     </row>
-    <row r="174" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="8"/>
       <c r="B174"/>
       <c r="C174" s="4"/>
@@ -6637,7 +6669,7 @@
       <c r="K174" s="9"/>
       <c r="L174" s="10"/>
     </row>
-    <row r="175" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>60</v>
       </c>
@@ -6665,11 +6697,13 @@
       <c r="I175" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J175" s="44"/>
+      <c r="J175" s="2">
+        <v>180</v>
+      </c>
       <c r="K175" s="9"/>
       <c r="L175" s="10"/>
     </row>
-    <row r="176" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
         <v>60</v>
       </c>
@@ -6697,7 +6731,7 @@
       <c r="K176" s="9"/>
       <c r="L176" s="37"/>
     </row>
-    <row r="177" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
         <v>60</v>
       </c>
@@ -6725,7 +6759,7 @@
       <c r="K177" s="9"/>
       <c r="L177" s="37"/>
     </row>
-    <row r="178" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
         <v>60</v>
       </c>
@@ -6755,7 +6789,7 @@
       <c r="K178" s="9"/>
       <c r="L178" s="10"/>
     </row>
-    <row r="179" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
         <v>60</v>
       </c>
@@ -6784,7 +6818,7 @@
       <c r="K179" s="9"/>
       <c r="L179" s="10"/>
     </row>
-    <row r="180" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
         <v>60</v>
       </c>
@@ -6813,7 +6847,7 @@
       <c r="K180" s="9"/>
       <c r="L180" s="10"/>
     </row>
-    <row r="181" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>60</v>
       </c>
@@ -6842,7 +6876,7 @@
       <c r="K181" s="9"/>
       <c r="L181" s="10"/>
     </row>
-    <row r="182" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
         <v>60</v>
       </c>
@@ -6871,7 +6905,7 @@
       <c r="K182" s="9"/>
       <c r="L182" s="10"/>
     </row>
-    <row r="183" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
         <v>60</v>
       </c>
@@ -6900,7 +6934,7 @@
       <c r="K183" s="9"/>
       <c r="L183" s="10"/>
     </row>
-    <row r="184" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>60</v>
       </c>
@@ -6929,7 +6963,7 @@
       <c r="K184" s="9"/>
       <c r="L184" s="10"/>
     </row>
-    <row r="185" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>60</v>
       </c>
@@ -6958,7 +6992,7 @@
       <c r="K185" s="9"/>
       <c r="L185" s="10"/>
     </row>
-    <row r="186" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>60</v>
       </c>
@@ -6987,7 +7021,7 @@
       <c r="K186" s="9"/>
       <c r="L186" s="10"/>
     </row>
-    <row r="187" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>60</v>
       </c>
@@ -7016,7 +7050,7 @@
       <c r="K187" s="9"/>
       <c r="L187" s="10"/>
     </row>
-    <row r="188" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
         <v>60</v>
       </c>
@@ -7045,7 +7079,7 @@
       <c r="K188" s="9"/>
       <c r="L188" s="10"/>
     </row>
-    <row r="189" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>60</v>
       </c>
@@ -7074,7 +7108,7 @@
       <c r="K189" s="9"/>
       <c r="L189" s="10"/>
     </row>
-    <row r="190" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
         <v>60</v>
       </c>
@@ -7103,7 +7137,7 @@
       <c r="K190" s="9"/>
       <c r="L190" s="10"/>
     </row>
-    <row r="191" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
         <v>60</v>
       </c>
@@ -7132,7 +7166,7 @@
       <c r="K191" s="9"/>
       <c r="L191" s="10"/>
     </row>
-    <row r="192" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>60</v>
       </c>
@@ -7161,7 +7195,7 @@
       <c r="K192" s="9"/>
       <c r="L192" s="10"/>
     </row>
-    <row r="193" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>60</v>
       </c>
@@ -7190,7 +7224,7 @@
       <c r="K193" s="9"/>
       <c r="L193" s="10"/>
     </row>
-    <row r="194" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>60</v>
       </c>
@@ -7219,7 +7253,7 @@
       <c r="K194" s="9"/>
       <c r="L194" s="10"/>
     </row>
-    <row r="195" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>60</v>
       </c>
@@ -7248,7 +7282,7 @@
       <c r="K195" s="9"/>
       <c r="L195" s="10"/>
     </row>
-    <row r="196" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>60</v>
       </c>
@@ -7277,7 +7311,7 @@
       <c r="K196" s="9"/>
       <c r="L196" s="10"/>
     </row>
-    <row r="197" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
         <v>60</v>
       </c>
@@ -7306,7 +7340,7 @@
       <c r="K197" s="9"/>
       <c r="L197" s="10"/>
     </row>
-    <row r="198" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>60</v>
       </c>
@@ -7335,7 +7369,7 @@
       <c r="K198" s="9"/>
       <c r="L198" s="10"/>
     </row>
-    <row r="199" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>60</v>
       </c>
@@ -7364,7 +7398,7 @@
       <c r="K199" s="9"/>
       <c r="L199" s="10"/>
     </row>
-    <row r="200" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>60</v>
       </c>
@@ -7393,7 +7427,7 @@
       <c r="K200" s="9"/>
       <c r="L200" s="10"/>
     </row>
-    <row r="201" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>60</v>
       </c>
@@ -7422,7 +7456,7 @@
       <c r="K201" s="9"/>
       <c r="L201" s="10"/>
     </row>
-    <row r="202" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202"/>
       <c r="C202" s="4"/>
@@ -7432,7 +7466,7 @@
       <c r="K202" s="9"/>
       <c r="L202" s="10"/>
     </row>
-    <row r="203" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>61</v>
       </c>
@@ -7460,11 +7494,13 @@
       <c r="I203" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J203" s="44"/>
+      <c r="J203" s="2">
+        <v>250</v>
+      </c>
       <c r="K203" s="9"/>
       <c r="L203" s="10"/>
     </row>
-    <row r="204" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>61</v>
       </c>
@@ -7492,7 +7528,7 @@
       <c r="K204" s="9"/>
       <c r="L204" s="37"/>
     </row>
-    <row r="205" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
         <v>61</v>
       </c>
@@ -7520,7 +7556,7 @@
       <c r="K205" s="9"/>
       <c r="L205" s="37"/>
     </row>
-    <row r="206" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
         <v>61</v>
       </c>
@@ -7550,7 +7586,7 @@
       <c r="K206" s="9"/>
       <c r="L206" s="10"/>
     </row>
-    <row r="207" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>61</v>
       </c>
@@ -7579,7 +7615,7 @@
       <c r="K207" s="9"/>
       <c r="L207" s="10"/>
     </row>
-    <row r="208" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
         <v>61</v>
       </c>
@@ -7608,7 +7644,7 @@
       <c r="K208" s="9"/>
       <c r="L208" s="10"/>
     </row>
-    <row r="209" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>61</v>
       </c>
@@ -7637,7 +7673,7 @@
       <c r="K209" s="9"/>
       <c r="L209" s="10"/>
     </row>
-    <row r="210" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>61</v>
       </c>
@@ -7666,7 +7702,7 @@
       <c r="K210" s="9"/>
       <c r="L210" s="10"/>
     </row>
-    <row r="211" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>61</v>
       </c>
@@ -7695,7 +7731,7 @@
       <c r="K211" s="9"/>
       <c r="L211" s="10"/>
     </row>
-    <row r="212" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>61</v>
       </c>
@@ -7724,7 +7760,7 @@
       <c r="K212" s="9"/>
       <c r="L212" s="10"/>
     </row>
-    <row r="213" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
         <v>61</v>
       </c>
@@ -7753,7 +7789,7 @@
       <c r="K213" s="9"/>
       <c r="L213" s="10"/>
     </row>
-    <row r="214" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
         <v>61</v>
       </c>
@@ -7782,7 +7818,7 @@
       <c r="K214" s="9"/>
       <c r="L214" s="10"/>
     </row>
-    <row r="215" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
         <v>61</v>
       </c>
@@ -7811,7 +7847,7 @@
       <c r="K215" s="9"/>
       <c r="L215" s="10"/>
     </row>
-    <row r="216" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
         <v>61</v>
       </c>
@@ -7840,7 +7876,7 @@
       <c r="K216" s="9"/>
       <c r="L216" s="10"/>
     </row>
-    <row r="217" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
         <v>61</v>
       </c>
@@ -7869,7 +7905,7 @@
       <c r="K217" s="9"/>
       <c r="L217" s="10"/>
     </row>
-    <row r="218" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>61</v>
       </c>
@@ -7898,7 +7934,7 @@
       <c r="K218" s="9"/>
       <c r="L218" s="10"/>
     </row>
-    <row r="219" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>61</v>
       </c>
@@ -7927,7 +7963,7 @@
       <c r="K219" s="9"/>
       <c r="L219" s="10"/>
     </row>
-    <row r="220" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>61</v>
       </c>
@@ -7956,7 +7992,7 @@
       <c r="K220" s="9"/>
       <c r="L220" s="10"/>
     </row>
-    <row r="221" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>61</v>
       </c>
@@ -7985,7 +8021,7 @@
       <c r="K221" s="9"/>
       <c r="L221" s="10"/>
     </row>
-    <row r="222" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
         <v>61</v>
       </c>
@@ -8014,7 +8050,7 @@
       <c r="K222" s="9"/>
       <c r="L222" s="10"/>
     </row>
-    <row r="223" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>61</v>
       </c>
@@ -8043,7 +8079,7 @@
       <c r="K223" s="9"/>
       <c r="L223" s="10"/>
     </row>
-    <row r="224" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>61</v>
       </c>
@@ -8072,7 +8108,7 @@
       <c r="K224" s="9"/>
       <c r="L224" s="10"/>
     </row>
-    <row r="225" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
         <v>61</v>
       </c>
@@ -8101,7 +8137,7 @@
       <c r="K225" s="9"/>
       <c r="L225" s="10"/>
     </row>
-    <row r="226" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>61</v>
       </c>
@@ -8130,7 +8166,7 @@
       <c r="K226" s="9"/>
       <c r="L226" s="10"/>
     </row>
-    <row r="227" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
         <v>61</v>
       </c>
@@ -8159,7 +8195,7 @@
       <c r="K227" s="9"/>
       <c r="L227" s="10"/>
     </row>
-    <row r="228" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>61</v>
       </c>
@@ -8188,7 +8224,7 @@
       <c r="K228" s="9"/>
       <c r="L228" s="10"/>
     </row>
-    <row r="229" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
         <v>61</v>
       </c>
@@ -8217,7 +8253,7 @@
       <c r="K229" s="9"/>
       <c r="L229" s="10"/>
     </row>
-    <row r="230" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="8"/>
       <c r="B230"/>
       <c r="C230" s="4"/>
@@ -8227,7 +8263,7 @@
       <c r="K230" s="9"/>
       <c r="L230" s="10"/>
     </row>
-    <row r="231" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>62</v>
       </c>
@@ -8255,11 +8291,13 @@
       <c r="I231" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J231" s="44"/>
+      <c r="J231" s="2">
+        <v>350</v>
+      </c>
       <c r="K231" s="9"/>
       <c r="L231" s="10"/>
     </row>
-    <row r="232" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>62</v>
       </c>
@@ -8287,7 +8325,7 @@
       <c r="K232" s="9"/>
       <c r="L232" s="37"/>
     </row>
-    <row r="233" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
         <v>62</v>
       </c>
@@ -8315,7 +8353,7 @@
       <c r="K233" s="9"/>
       <c r="L233" s="37"/>
     </row>
-    <row r="234" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
         <v>62</v>
       </c>
@@ -8345,7 +8383,7 @@
       <c r="K234" s="9"/>
       <c r="L234" s="10"/>
     </row>
-    <row r="235" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
         <v>62</v>
       </c>
@@ -8374,7 +8412,7 @@
       <c r="K235" s="9"/>
       <c r="L235" s="10"/>
     </row>
-    <row r="236" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>62</v>
       </c>
@@ -8403,7 +8441,7 @@
       <c r="K236" s="9"/>
       <c r="L236" s="10"/>
     </row>
-    <row r="237" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
         <v>62</v>
       </c>
@@ -8432,7 +8470,7 @@
       <c r="K237" s="9"/>
       <c r="L237" s="10"/>
     </row>
-    <row r="238" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
         <v>62</v>
       </c>
@@ -8461,7 +8499,7 @@
       <c r="K238" s="9"/>
       <c r="L238" s="10"/>
     </row>
-    <row r="239" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
         <v>62</v>
       </c>
@@ -8490,7 +8528,7 @@
       <c r="K239" s="9"/>
       <c r="L239" s="10"/>
     </row>
-    <row r="240" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>62</v>
       </c>
@@ -8519,7 +8557,7 @@
       <c r="K240" s="9"/>
       <c r="L240" s="10"/>
     </row>
-    <row r="241" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
         <v>62</v>
       </c>
@@ -8548,7 +8586,7 @@
       <c r="K241" s="9"/>
       <c r="L241" s="10"/>
     </row>
-    <row r="242" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>62</v>
       </c>
@@ -8577,7 +8615,7 @@
       <c r="K242" s="9"/>
       <c r="L242" s="10"/>
     </row>
-    <row r="243" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
         <v>62</v>
       </c>
@@ -8606,7 +8644,7 @@
       <c r="K243" s="9"/>
       <c r="L243" s="10"/>
     </row>
-    <row r="244" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
         <v>62</v>
       </c>
@@ -8635,7 +8673,7 @@
       <c r="K244" s="9"/>
       <c r="L244" s="10"/>
     </row>
-    <row r="245" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
         <v>62</v>
       </c>
@@ -8664,7 +8702,7 @@
       <c r="K245" s="9"/>
       <c r="L245" s="10"/>
     </row>
-    <row r="246" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
         <v>62</v>
       </c>
@@ -8693,7 +8731,7 @@
       <c r="K246" s="9"/>
       <c r="L246" s="10"/>
     </row>
-    <row r="247" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="s">
         <v>62</v>
       </c>
@@ -8722,7 +8760,7 @@
       <c r="K247" s="9"/>
       <c r="L247" s="10"/>
     </row>
-    <row r="248" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
         <v>62</v>
       </c>
@@ -8751,7 +8789,7 @@
       <c r="K248" s="9"/>
       <c r="L248" s="10"/>
     </row>
-    <row r="249" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
         <v>62</v>
       </c>
@@ -8780,7 +8818,7 @@
       <c r="K249" s="9"/>
       <c r="L249" s="10"/>
     </row>
-    <row r="250" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
         <v>62</v>
       </c>
@@ -8809,7 +8847,7 @@
       <c r="K250" s="9"/>
       <c r="L250" s="10"/>
     </row>
-    <row r="251" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
         <v>62</v>
       </c>
@@ -8838,7 +8876,7 @@
       <c r="K251" s="9"/>
       <c r="L251" s="10"/>
     </row>
-    <row r="252" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
         <v>62</v>
       </c>
@@ -8867,7 +8905,7 @@
       <c r="K252" s="9"/>
       <c r="L252" s="10"/>
     </row>
-    <row r="253" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
         <v>62</v>
       </c>
@@ -8896,7 +8934,7 @@
       <c r="K253" s="9"/>
       <c r="L253" s="10"/>
     </row>
-    <row r="254" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
         <v>62</v>
       </c>
@@ -8925,7 +8963,7 @@
       <c r="K254" s="9"/>
       <c r="L254" s="10"/>
     </row>
-    <row r="255" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
         <v>62</v>
       </c>
@@ -8954,7 +8992,7 @@
       <c r="K255" s="9"/>
       <c r="L255" s="10"/>
     </row>
-    <row r="256" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
         <v>62</v>
       </c>
@@ -8983,7 +9021,7 @@
       <c r="K256" s="9"/>
       <c r="L256" s="10"/>
     </row>
-    <row r="257" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="8" t="s">
         <v>62</v>
       </c>
@@ -9012,7 +9050,7 @@
       <c r="K257" s="9"/>
       <c r="L257" s="10"/>
     </row>
-    <row r="258" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="8"/>
       <c r="B258"/>
       <c r="C258" s="4"/>
@@ -9022,7 +9060,7 @@
       <c r="K258" s="9"/>
       <c r="L258" s="10"/>
     </row>
-    <row r="259" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>63</v>
       </c>
@@ -9050,11 +9088,13 @@
       <c r="I259" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J259" s="44"/>
+      <c r="J259" s="2">
+        <v>500</v>
+      </c>
       <c r="K259" s="9"/>
       <c r="L259" s="10"/>
     </row>
-    <row r="260" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="s">
         <v>63</v>
       </c>
@@ -9082,7 +9122,7 @@
       <c r="K260" s="9"/>
       <c r="L260" s="37"/>
     </row>
-    <row r="261" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="s">
         <v>63</v>
       </c>
@@ -9110,7 +9150,7 @@
       <c r="K261" s="9"/>
       <c r="L261" s="37"/>
     </row>
-    <row r="262" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="s">
         <v>63</v>
       </c>
@@ -9140,7 +9180,7 @@
       <c r="K262" s="9"/>
       <c r="L262" s="10"/>
     </row>
-    <row r="263" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
         <v>63</v>
       </c>
@@ -9169,7 +9209,7 @@
       <c r="K263" s="9"/>
       <c r="L263" s="10"/>
     </row>
-    <row r="264" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
         <v>63</v>
       </c>
@@ -9198,7 +9238,7 @@
       <c r="K264" s="9"/>
       <c r="L264" s="10"/>
     </row>
-    <row r="265" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
         <v>63</v>
       </c>
@@ -9227,7 +9267,7 @@
       <c r="K265" s="9"/>
       <c r="L265" s="10"/>
     </row>
-    <row r="266" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
         <v>63</v>
       </c>
@@ -9256,7 +9296,7 @@
       <c r="K266" s="9"/>
       <c r="L266" s="10"/>
     </row>
-    <row r="267" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="s">
         <v>63</v>
       </c>
@@ -9285,7 +9325,7 @@
       <c r="K267" s="9"/>
       <c r="L267" s="10"/>
     </row>
-    <row r="268" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="s">
         <v>63</v>
       </c>
@@ -9314,7 +9354,7 @@
       <c r="K268" s="9"/>
       <c r="L268" s="10"/>
     </row>
-    <row r="269" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="8" t="s">
         <v>63</v>
       </c>
@@ -9343,7 +9383,7 @@
       <c r="K269" s="9"/>
       <c r="L269" s="10"/>
     </row>
-    <row r="270" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
         <v>63</v>
       </c>
@@ -9372,7 +9412,7 @@
       <c r="K270" s="9"/>
       <c r="L270" s="10"/>
     </row>
-    <row r="271" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="s">
         <v>63</v>
       </c>
@@ -9401,7 +9441,7 @@
       <c r="K271" s="9"/>
       <c r="L271" s="10"/>
     </row>
-    <row r="272" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
         <v>63</v>
       </c>
@@ -9430,7 +9470,7 @@
       <c r="K272" s="9"/>
       <c r="L272" s="10"/>
     </row>
-    <row r="273" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="s">
         <v>63</v>
       </c>
@@ -9459,7 +9499,7 @@
       <c r="K273" s="9"/>
       <c r="L273" s="10"/>
     </row>
-    <row r="274" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
         <v>63</v>
       </c>
@@ -9488,7 +9528,7 @@
       <c r="K274" s="9"/>
       <c r="L274" s="10"/>
     </row>
-    <row r="275" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
         <v>63</v>
       </c>
@@ -9517,7 +9557,7 @@
       <c r="K275" s="9"/>
       <c r="L275" s="10"/>
     </row>
-    <row r="276" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
         <v>63</v>
       </c>
@@ -9546,7 +9586,7 @@
       <c r="K276" s="9"/>
       <c r="L276" s="10"/>
     </row>
-    <row r="277" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="8" t="s">
         <v>63</v>
       </c>
@@ -9575,7 +9615,7 @@
       <c r="K277" s="9"/>
       <c r="L277" s="10"/>
     </row>
-    <row r="278" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
         <v>63</v>
       </c>
@@ -9604,7 +9644,7 @@
       <c r="K278" s="9"/>
       <c r="L278" s="10"/>
     </row>
-    <row r="279" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
         <v>63</v>
       </c>
@@ -9633,7 +9673,7 @@
       <c r="K279" s="9"/>
       <c r="L279" s="10"/>
     </row>
-    <row r="280" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="s">
         <v>63</v>
       </c>
@@ -9662,7 +9702,7 @@
       <c r="K280" s="9"/>
       <c r="L280" s="10"/>
     </row>
-    <row r="281" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="8" t="s">
         <v>63</v>
       </c>
@@ -9691,7 +9731,7 @@
       <c r="K281" s="9"/>
       <c r="L281" s="10"/>
     </row>
-    <row r="282" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="s">
         <v>63</v>
       </c>
@@ -9720,7 +9760,7 @@
       <c r="K282" s="9"/>
       <c r="L282" s="10"/>
     </row>
-    <row r="283" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
         <v>63</v>
       </c>
@@ -9749,7 +9789,7 @@
       <c r="K283" s="9"/>
       <c r="L283" s="10"/>
     </row>
-    <row r="284" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="s">
         <v>63</v>
       </c>
@@ -9778,7 +9818,7 @@
       <c r="K284" s="9"/>
       <c r="L284" s="10"/>
     </row>
-    <row r="285" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="8" t="s">
         <v>63</v>
       </c>
@@ -9807,7 +9847,7 @@
       <c r="K285" s="9"/>
       <c r="L285" s="10"/>
     </row>
-    <row r="286" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="8"/>
       <c r="B286"/>
       <c r="C286" s="4"/>
@@ -9817,7 +9857,7 @@
       <c r="K286" s="9"/>
       <c r="L286" s="10"/>
     </row>
-    <row r="287" spans="1:12" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>64</v>
       </c>
@@ -9845,11 +9885,13 @@
       <c r="I287" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J287" s="44"/>
+      <c r="J287" s="2">
+        <v>750</v>
+      </c>
       <c r="K287" s="5"/>
       <c r="L287" s="13"/>
     </row>
-    <row r="288" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="8" t="s">
         <v>64</v>
       </c>
@@ -9877,7 +9919,7 @@
       <c r="K288" s="9"/>
       <c r="L288" s="37"/>
     </row>
-    <row r="289" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="8" t="s">
         <v>64</v>
       </c>
@@ -9905,7 +9947,7 @@
       <c r="K289" s="9"/>
       <c r="L289" s="37"/>
     </row>
-    <row r="290" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="8" t="s">
         <v>64</v>
       </c>
@@ -9935,7 +9977,7 @@
       <c r="K290" s="9"/>
       <c r="L290" s="10"/>
     </row>
-    <row r="291" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="8" t="s">
         <v>64</v>
       </c>
@@ -9964,7 +10006,7 @@
       <c r="K291" s="9"/>
       <c r="L291" s="10"/>
     </row>
-    <row r="292" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="s">
         <v>64</v>
       </c>
@@ -9993,7 +10035,7 @@
       <c r="K292" s="9"/>
       <c r="L292" s="10"/>
     </row>
-    <row r="293" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="8" t="s">
         <v>64</v>
       </c>
@@ -10022,7 +10064,7 @@
       <c r="K293" s="9"/>
       <c r="L293" s="10"/>
     </row>
-    <row r="294" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="8" t="s">
         <v>64</v>
       </c>
@@ -10051,7 +10093,7 @@
       <c r="K294" s="9"/>
       <c r="L294" s="10"/>
     </row>
-    <row r="295" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="8" t="s">
         <v>64</v>
       </c>
@@ -10080,7 +10122,7 @@
       <c r="K295" s="9"/>
       <c r="L295" s="10"/>
     </row>
-    <row r="296" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="8" t="s">
         <v>64</v>
       </c>
@@ -10109,7 +10151,7 @@
       <c r="K296" s="9"/>
       <c r="L296" s="10"/>
     </row>
-    <row r="297" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="8" t="s">
         <v>64</v>
       </c>
@@ -10138,7 +10180,7 @@
       <c r="K297" s="9"/>
       <c r="L297" s="10"/>
     </row>
-    <row r="298" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
         <v>64</v>
       </c>
@@ -10167,7 +10209,7 @@
       <c r="K298" s="9"/>
       <c r="L298" s="10"/>
     </row>
-    <row r="299" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="8" t="s">
         <v>64</v>
       </c>
@@ -10196,7 +10238,7 @@
       <c r="K299" s="9"/>
       <c r="L299" s="10"/>
     </row>
-    <row r="300" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="8" t="s">
         <v>64</v>
       </c>
@@ -10225,7 +10267,7 @@
       <c r="K300" s="9"/>
       <c r="L300" s="10"/>
     </row>
-    <row r="301" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="8" t="s">
         <v>64</v>
       </c>
@@ -10254,7 +10296,7 @@
       <c r="K301" s="9"/>
       <c r="L301" s="10"/>
     </row>
-    <row r="302" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="s">
         <v>64</v>
       </c>
@@ -10283,7 +10325,7 @@
       <c r="K302" s="9"/>
       <c r="L302" s="10"/>
     </row>
-    <row r="303" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="8" t="s">
         <v>64</v>
       </c>
@@ -10312,7 +10354,7 @@
       <c r="K303" s="9"/>
       <c r="L303" s="10"/>
     </row>
-    <row r="304" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="8" t="s">
         <v>64</v>
       </c>
@@ -10341,7 +10383,7 @@
       <c r="K304" s="9"/>
       <c r="L304" s="10"/>
     </row>
-    <row r="305" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="8" t="s">
         <v>64</v>
       </c>
@@ -10370,7 +10412,7 @@
       <c r="K305" s="9"/>
       <c r="L305" s="10"/>
     </row>
-    <row r="306" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="8" t="s">
         <v>64</v>
       </c>
@@ -10399,7 +10441,7 @@
       <c r="K306" s="9"/>
       <c r="L306" s="10"/>
     </row>
-    <row r="307" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="8" t="s">
         <v>64</v>
       </c>
@@ -10428,7 +10470,7 @@
       <c r="K307" s="9"/>
       <c r="L307" s="10"/>
     </row>
-    <row r="308" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="8" t="s">
         <v>64</v>
       </c>
@@ -10457,7 +10499,7 @@
       <c r="K308" s="9"/>
       <c r="L308" s="10"/>
     </row>
-    <row r="309" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="8" t="s">
         <v>64</v>
       </c>
@@ -10486,7 +10528,7 @@
       <c r="K309" s="9"/>
       <c r="L309" s="10"/>
     </row>
-    <row r="310" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="8" t="s">
         <v>64</v>
       </c>
@@ -10515,7 +10557,7 @@
       <c r="K310" s="9"/>
       <c r="L310" s="10"/>
     </row>
-    <row r="311" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="8" t="s">
         <v>64</v>
       </c>
@@ -10544,7 +10586,7 @@
       <c r="K311" s="9"/>
       <c r="L311" s="10"/>
     </row>
-    <row r="312" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="s">
         <v>64</v>
       </c>
@@ -10573,7 +10615,7 @@
       <c r="K312" s="9"/>
       <c r="L312" s="10"/>
     </row>
-    <row r="313" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="8" t="s">
         <v>64</v>
       </c>
@@ -10602,7 +10644,7 @@
       <c r="K313" s="9"/>
       <c r="L313" s="10"/>
     </row>
-    <row r="314" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="8"/>
       <c r="B314"/>
       <c r="C314" s="4"/>
@@ -10612,7 +10654,7 @@
       <c r="K314" s="9"/>
       <c r="L314" s="10"/>
     </row>
-    <row r="315" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>65</v>
       </c>
@@ -10640,11 +10682,13 @@
       <c r="I315" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J315" s="44"/>
+      <c r="J315" s="2">
+        <v>1000</v>
+      </c>
       <c r="K315" s="9"/>
       <c r="L315" s="13"/>
     </row>
-    <row r="316" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="8" t="s">
         <v>65</v>
       </c>
@@ -10672,7 +10716,7 @@
       <c r="K316" s="9"/>
       <c r="L316" s="37"/>
     </row>
-    <row r="317" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="8" t="s">
         <v>65</v>
       </c>
@@ -10700,7 +10744,7 @@
       <c r="K317" s="9"/>
       <c r="L317" s="37"/>
     </row>
-    <row r="318" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="8" t="s">
         <v>65</v>
       </c>
@@ -10730,7 +10774,7 @@
       <c r="K318" s="9"/>
       <c r="L318" s="10"/>
     </row>
-    <row r="319" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="8" t="s">
         <v>65</v>
       </c>
@@ -10759,7 +10803,7 @@
       <c r="K319" s="9"/>
       <c r="L319" s="10"/>
     </row>
-    <row r="320" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="8" t="s">
         <v>65</v>
       </c>
@@ -10788,7 +10832,7 @@
       <c r="K320" s="9"/>
       <c r="L320" s="10"/>
     </row>
-    <row r="321" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="8" t="s">
         <v>65</v>
       </c>
@@ -10817,7 +10861,7 @@
       <c r="K321" s="9"/>
       <c r="L321" s="10"/>
     </row>
-    <row r="322" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="8" t="s">
         <v>65</v>
       </c>
@@ -10846,7 +10890,7 @@
       <c r="K322" s="9"/>
       <c r="L322" s="10"/>
     </row>
-    <row r="323" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="8" t="s">
         <v>65</v>
       </c>
@@ -10875,7 +10919,7 @@
       <c r="K323" s="9"/>
       <c r="L323" s="10"/>
     </row>
-    <row r="324" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="8" t="s">
         <v>65</v>
       </c>
@@ -10904,7 +10948,7 @@
       <c r="K324" s="9"/>
       <c r="L324" s="10"/>
     </row>
-    <row r="325" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="8" t="s">
         <v>65</v>
       </c>
@@ -10933,7 +10977,7 @@
       <c r="K325" s="9"/>
       <c r="L325" s="10"/>
     </row>
-    <row r="326" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="8" t="s">
         <v>65</v>
       </c>
@@ -10962,7 +11006,7 @@
       <c r="K326" s="9"/>
       <c r="L326" s="10"/>
     </row>
-    <row r="327" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="8" t="s">
         <v>65</v>
       </c>
@@ -10991,7 +11035,7 @@
       <c r="K327" s="9"/>
       <c r="L327" s="10"/>
     </row>
-    <row r="328" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="8" t="s">
         <v>65</v>
       </c>
@@ -11020,7 +11064,7 @@
       <c r="K328" s="9"/>
       <c r="L328" s="10"/>
     </row>
-    <row r="329" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="8" t="s">
         <v>65</v>
       </c>
@@ -11049,7 +11093,7 @@
       <c r="K329" s="9"/>
       <c r="L329" s="10"/>
     </row>
-    <row r="330" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="8" t="s">
         <v>65</v>
       </c>
@@ -11078,7 +11122,7 @@
       <c r="K330" s="9"/>
       <c r="L330" s="10"/>
     </row>
-    <row r="331" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="8" t="s">
         <v>65</v>
       </c>
@@ -11107,7 +11151,7 @@
       <c r="K331" s="9"/>
       <c r="L331" s="10"/>
     </row>
-    <row r="332" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="8" t="s">
         <v>65</v>
       </c>
@@ -11136,7 +11180,7 @@
       <c r="K332" s="9"/>
       <c r="L332" s="10"/>
     </row>
-    <row r="333" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="8" t="s">
         <v>65</v>
       </c>
@@ -11165,7 +11209,7 @@
       <c r="K333" s="9"/>
       <c r="L333" s="10"/>
     </row>
-    <row r="334" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="8" t="s">
         <v>65</v>
       </c>
@@ -11194,7 +11238,7 @@
       <c r="K334" s="9"/>
       <c r="L334" s="10"/>
     </row>
-    <row r="335" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="8" t="s">
         <v>65</v>
       </c>
@@ -11223,7 +11267,7 @@
       <c r="K335" s="9"/>
       <c r="L335" s="10"/>
     </row>
-    <row r="336" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="8" t="s">
         <v>65</v>
       </c>
@@ -11252,7 +11296,7 @@
       <c r="K336" s="9"/>
       <c r="L336" s="10"/>
     </row>
-    <row r="337" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="8" t="s">
         <v>65</v>
       </c>
@@ -11281,7 +11325,7 @@
       <c r="K337" s="9"/>
       <c r="L337" s="10"/>
     </row>
-    <row r="338" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="8" t="s">
         <v>65</v>
       </c>
@@ -11310,7 +11354,7 @@
       <c r="K338" s="9"/>
       <c r="L338" s="10"/>
     </row>
-    <row r="339" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="8" t="s">
         <v>65</v>
       </c>
@@ -11339,7 +11383,7 @@
       <c r="K339" s="9"/>
       <c r="L339" s="10"/>
     </row>
-    <row r="340" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="8" t="s">
         <v>65</v>
       </c>
@@ -11368,7 +11412,7 @@
       <c r="K340" s="9"/>
       <c r="L340" s="10"/>
     </row>
-    <row r="341" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="8" t="s">
         <v>65</v>
       </c>
@@ -11397,7 +11441,7 @@
       <c r="K341" s="9"/>
       <c r="L341" s="10"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="4"/>
@@ -11407,7 +11451,7 @@
       <c r="K342" s="9"/>
       <c r="L342" s="10"/>
     </row>
-    <row r="343" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>66</v>
       </c>
@@ -11435,11 +11479,13 @@
       <c r="I343" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J343" s="44"/>
+      <c r="J343" s="2">
+        <v>1500</v>
+      </c>
       <c r="K343" s="9"/>
       <c r="L343" s="13"/>
     </row>
-    <row r="344" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="8" t="s">
         <v>66</v>
       </c>
@@ -11467,7 +11513,7 @@
       <c r="K344" s="9"/>
       <c r="L344" s="37"/>
     </row>
-    <row r="345" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="8" t="s">
         <v>66</v>
       </c>
@@ -11495,7 +11541,7 @@
       <c r="K345" s="9"/>
       <c r="L345" s="37"/>
     </row>
-    <row r="346" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="8" t="s">
         <v>66</v>
       </c>
@@ -11525,7 +11571,7 @@
       <c r="K346" s="9"/>
       <c r="L346" s="10"/>
     </row>
-    <row r="347" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="8" t="s">
         <v>66</v>
       </c>
@@ -11554,7 +11600,7 @@
       <c r="K347" s="9"/>
       <c r="L347" s="10"/>
     </row>
-    <row r="348" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="8" t="s">
         <v>66</v>
       </c>
@@ -11583,7 +11629,7 @@
       <c r="K348" s="9"/>
       <c r="L348" s="10"/>
     </row>
-    <row r="349" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="8" t="s">
         <v>66</v>
       </c>
@@ -11612,7 +11658,7 @@
       <c r="K349" s="9"/>
       <c r="L349" s="10"/>
     </row>
-    <row r="350" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="8" t="s">
         <v>66</v>
       </c>
@@ -11641,7 +11687,7 @@
       <c r="K350" s="9"/>
       <c r="L350" s="10"/>
     </row>
-    <row r="351" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="8" t="s">
         <v>66</v>
       </c>
@@ -11670,7 +11716,7 @@
       <c r="K351" s="9"/>
       <c r="L351" s="10"/>
     </row>
-    <row r="352" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="8" t="s">
         <v>66</v>
       </c>
@@ -11699,7 +11745,7 @@
       <c r="K352" s="9"/>
       <c r="L352" s="10"/>
     </row>
-    <row r="353" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
         <v>66</v>
       </c>
@@ -11728,7 +11774,7 @@
       <c r="K353" s="9"/>
       <c r="L353" s="10"/>
     </row>
-    <row r="354" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="s">
         <v>66</v>
       </c>
@@ -11757,7 +11803,7 @@
       <c r="K354" s="9"/>
       <c r="L354" s="10"/>
     </row>
-    <row r="355" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="8" t="s">
         <v>66</v>
       </c>
@@ -11786,7 +11832,7 @@
       <c r="K355" s="9"/>
       <c r="L355" s="10"/>
     </row>
-    <row r="356" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="8" t="s">
         <v>66</v>
       </c>
@@ -11815,7 +11861,7 @@
       <c r="K356" s="9"/>
       <c r="L356" s="10"/>
     </row>
-    <row r="357" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="8" t="s">
         <v>66</v>
       </c>
@@ -11844,7 +11890,7 @@
       <c r="K357" s="9"/>
       <c r="L357" s="10"/>
     </row>
-    <row r="358" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="8" t="s">
         <v>66</v>
       </c>
@@ -11873,7 +11919,7 @@
       <c r="K358" s="9"/>
       <c r="L358" s="10"/>
     </row>
-    <row r="359" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="8" t="s">
         <v>66</v>
       </c>
@@ -11902,7 +11948,7 @@
       <c r="K359" s="9"/>
       <c r="L359" s="10"/>
     </row>
-    <row r="360" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="8" t="s">
         <v>66</v>
       </c>
@@ -11931,7 +11977,7 @@
       <c r="K360" s="9"/>
       <c r="L360" s="10"/>
     </row>
-    <row r="361" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="s">
         <v>66</v>
       </c>
@@ -11960,7 +12006,7 @@
       <c r="K361" s="9"/>
       <c r="L361" s="10"/>
     </row>
-    <row r="362" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="8" t="s">
         <v>66</v>
       </c>
@@ -11989,7 +12035,7 @@
       <c r="K362" s="9"/>
       <c r="L362" s="10"/>
     </row>
-    <row r="363" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="8" t="s">
         <v>66</v>
       </c>
@@ -12018,7 +12064,7 @@
       <c r="K363" s="9"/>
       <c r="L363" s="10"/>
     </row>
-    <row r="364" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="8" t="s">
         <v>66</v>
       </c>
@@ -12047,7 +12093,7 @@
       <c r="K364" s="9"/>
       <c r="L364" s="10"/>
     </row>
-    <row r="365" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="8" t="s">
         <v>66</v>
       </c>
@@ -12076,7 +12122,7 @@
       <c r="K365" s="9"/>
       <c r="L365" s="10"/>
     </row>
-    <row r="366" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="8" t="s">
         <v>66</v>
       </c>
@@ -12105,7 +12151,7 @@
       <c r="K366" s="9"/>
       <c r="L366" s="10"/>
     </row>
-    <row r="367" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="8" t="s">
         <v>66</v>
       </c>
@@ -12134,7 +12180,7 @@
       <c r="K367" s="9"/>
       <c r="L367" s="10"/>
     </row>
-    <row r="368" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="8" t="s">
         <v>66</v>
       </c>
@@ -12163,7 +12209,7 @@
       <c r="K368" s="9"/>
       <c r="L368" s="10"/>
     </row>
-    <row r="369" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="8" t="s">
         <v>66</v>
       </c>
@@ -12192,7 +12238,7 @@
       <c r="K369" s="9"/>
       <c r="L369" s="10"/>
     </row>
-    <row r="370" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="8"/>
       <c r="B370"/>
       <c r="C370" s="4"/>
@@ -12202,7 +12248,7 @@
       <c r="K370" s="9"/>
       <c r="L370" s="10"/>
     </row>
-    <row r="371" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>70</v>
       </c>
@@ -12223,7 +12269,7 @@
       <c r="H371" s="10"/>
       <c r="I371" s="10"/>
     </row>
-    <row r="372" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>69</v>
       </c>
@@ -12244,7 +12290,7 @@
       <c r="H372" s="10"/>
       <c r="I372" s="10"/>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="4"/>
@@ -12253,7 +12299,7 @@
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -12262,7 +12308,7 @@
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -12271,7 +12317,7 @@
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -12280,7 +12326,7 @@
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -12289,7 +12335,7 @@
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -12301,10 +12347,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/ARCHIVE/deployment/Omaha_Cal_Info_GS03FLMB_00003.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_GS03FLMB_00003.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="N377" sqref="N377"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2551,8 +2551,8 @@
       <c r="G29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="10">
-        <v>4928000</v>
+      <c r="H29" s="45">
+        <v>500000</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>48</v>
